--- a/src/assets/files/new-annual-return-upload.xlsx
+++ b/src/assets/files/new-annual-return-upload.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bright Agofure\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7035" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10215" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Form H1 - Annual Return Form" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>S/N</t>
   </si>
@@ -90,141 +90,6 @@
   </si>
   <si>
     <t>Other Income</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Stewart</t>
-  </si>
-  <si>
-    <t>3056421178</t>
-  </si>
-  <si>
-    <t>Nigerian</t>
-  </si>
-  <si>
-    <t>Kattegat</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>Neo</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Limbo</t>
-  </si>
-  <si>
-    <t>Stryker</t>
-  </si>
-  <si>
-    <t>Sansa</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>4056677755</t>
-  </si>
-  <si>
-    <t>3090008883</t>
-  </si>
-  <si>
-    <t>Winterfell</t>
-  </si>
-  <si>
-    <t>Knight</t>
-  </si>
-  <si>
-    <t>Mickey</t>
-  </si>
-  <si>
-    <t>Bolitar</t>
-  </si>
-  <si>
-    <t>6067547875</t>
-  </si>
-  <si>
-    <t>Jesse</t>
-  </si>
-  <si>
-    <t>Jax</t>
-  </si>
-  <si>
-    <t>Glee</t>
-  </si>
-  <si>
-    <t>4056553333</t>
-  </si>
-  <si>
-    <t>Manager</t>
-  </si>
-  <si>
-    <t>Liner</t>
-  </si>
-  <si>
-    <t>Baker</t>
-  </si>
-  <si>
-    <t>Stalker</t>
-  </si>
-  <si>
-    <t>Talker</t>
-  </si>
-  <si>
-    <t>Hobbo</t>
-  </si>
-  <si>
-    <t>Coven</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Tulip</t>
-  </si>
-  <si>
-    <t>Apartment</t>
-  </si>
-  <si>
-    <t>5067548366</t>
-  </si>
-  <si>
-    <t>3062542672</t>
-  </si>
-  <si>
-    <t>1046764844</t>
-  </si>
-  <si>
-    <t>5047464848</t>
-  </si>
-  <si>
-    <t>Lark</t>
-  </si>
-  <si>
-    <t>Shaun</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Shay</t>
-  </si>
-  <si>
-    <t>Lamba</t>
-  </si>
-  <si>
-    <t>Stray</t>
   </si>
 </sst>
 </file>
@@ -716,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG146"/>
+  <dimension ref="A1:AG137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -819,375 +684,15 @@
       <c r="AF1" s="4"/>
       <c r="AG1" s="4"/>
     </row>
-    <row r="2" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2">
-        <v>20000</v>
-      </c>
-      <c r="P2">
-        <v>30000</v>
-      </c>
-      <c r="Q2">
-        <v>30000</v>
-      </c>
-      <c r="R2">
-        <v>12</v>
-      </c>
-      <c r="U2">
-        <v>400000</v>
-      </c>
-      <c r="V2">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3">
-        <v>20000</v>
-      </c>
-      <c r="P3">
-        <v>35000</v>
-      </c>
-      <c r="Q3">
-        <v>10000</v>
-      </c>
-      <c r="R3">
-        <v>9</v>
-      </c>
-      <c r="U3">
-        <v>30000</v>
-      </c>
-      <c r="V3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4">
-        <v>30000</v>
-      </c>
-      <c r="Q4">
-        <v>2000</v>
-      </c>
-      <c r="R4">
-        <v>12</v>
-      </c>
-      <c r="T4">
-        <v>20000</v>
-      </c>
-      <c r="U4">
-        <v>350000</v>
-      </c>
-      <c r="V4">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5">
-        <v>30000</v>
-      </c>
-      <c r="Q5">
-        <v>24000</v>
-      </c>
-      <c r="R5">
-        <v>12</v>
-      </c>
-      <c r="S5">
-        <v>40000</v>
-      </c>
-      <c r="U5">
-        <v>160000</v>
-      </c>
-      <c r="V5">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6">
-        <v>30000</v>
-      </c>
-      <c r="Q6">
-        <v>12000</v>
-      </c>
-      <c r="R6">
-        <v>12</v>
-      </c>
-      <c r="T6">
-        <v>45000</v>
-      </c>
-      <c r="U6">
-        <v>250000</v>
-      </c>
-      <c r="V6">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7">
-        <v>32000</v>
-      </c>
-      <c r="Q7">
-        <v>20000</v>
-      </c>
-      <c r="R7">
-        <v>12</v>
-      </c>
-      <c r="T7">
-        <v>10000</v>
-      </c>
-      <c r="U7">
-        <v>32000</v>
-      </c>
-      <c r="V7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8">
-        <v>43000</v>
-      </c>
-      <c r="Q8">
-        <v>50000</v>
-      </c>
-      <c r="R8">
-        <v>12</v>
-      </c>
-      <c r="T8">
-        <v>50000</v>
-      </c>
-      <c r="U8">
-        <v>350000</v>
-      </c>
-      <c r="V8">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9">
-        <v>54000</v>
-      </c>
-      <c r="Q9">
-        <v>23000</v>
-      </c>
-      <c r="R9">
-        <v>12</v>
-      </c>
-      <c r="T9">
-        <v>24000</v>
-      </c>
-      <c r="U9">
-        <v>140000</v>
-      </c>
-      <c r="V9">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>54</v>
-      </c>
-      <c r="K10" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10">
-        <v>32000</v>
-      </c>
-      <c r="Q10">
-        <v>45000</v>
-      </c>
-      <c r="R10">
-        <v>12</v>
-      </c>
-      <c r="T10">
-        <v>20000</v>
-      </c>
-      <c r="U10">
-        <v>150000</v>
-      </c>
-      <c r="V10">
-        <v>13400</v>
-      </c>
-    </row>
+    <row r="2" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1315,15 +820,6 @@
     <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
